--- a/data/trans_dic/P15_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con convivientes no familiares con COVID-19</t>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,62 +686,62 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,42%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,29</t>
+          <t>0,15; 1,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,2</t>
+          <t>1,04; 3,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,11</t>
+          <t>0,11; 1,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,05</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,43</t>
+          <t>0,23; 1,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,4</t>
+          <t>0,19; 1,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,84</t>
+          <t>1,54; 3,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,55</t>
+          <t>0,06; 0,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,89</t>
+          <t>0,21; 1,0</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,84</t>
+          <t>0,19; 0,83</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,07</t>
+          <t>0,22; 1,08</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,04</t>
+          <t>1,51; 3,08</t>
         </is>
       </c>
     </row>
@@ -860,62 +861,62 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>0,35%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,95</t>
+          <t>0,11; 0,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,28</t>
+          <t>0,97; 5,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,23</t>
+          <t>0,32; 3,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,85</t>
+          <t>0,12; 0,83</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,61</t>
+          <t>0,06; 0,55</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,44</t>
+          <t>0,88; 3,31</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1050,7 +1051,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1060,7 +1061,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,19 +1196,19 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,33%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>2,03%</t>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1230,7 +1231,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1260,7 +1261,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,66</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,76</t>
+          <t>0,13; 0,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,98</t>
+          <t>0,11; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,12</t>
+          <t>1,32; 3,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,71</t>
+          <t>0,11; 0,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,75</t>
+          <t>0,08; 0,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,94</t>
+          <t>0,23; 0,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,03</t>
+          <t>0,22; 0,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,33</t>
+          <t>1,4; 3,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,35</t>
+          <t>0,06; 0,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,56</t>
+          <t>0,11; 0,52</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,69</t>
+          <t>0,23; 0,69</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,78</t>
+          <t>0,24; 0,77</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,83</t>
+          <t>1,53; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7736</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12103</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11901</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5729</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15917</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14670</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18101</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10095</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2401; 24331</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10573</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2396; 7338</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2004; 21220</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20799</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4208; 24525</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3411; 27396</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3675; 8973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2010; 20163</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7238; 34456</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6482; 28919</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7709; 37295</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7061; 14388</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5051</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9676</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6614</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16183</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1461; 13102</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>702; 3927</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17979</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7890</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>207; 2003</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3243; 22780</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1607; 15085</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1214; 4566</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19275</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17725</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15945</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19073</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15192</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12936</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18670</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20355</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12213</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17662</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19140</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6499</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18928</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>29875</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>30392</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>12618</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2423; 23273</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4313; 27543</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3960; 27647</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3983; 9966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3996; 26614</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2894; 25939</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8297; 35929</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7927; 35499</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4241; 10172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3950; 25512</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7940; 36621</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15983; 48661</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>16929; 54233</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>9252; 16905</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>